--- a/bao_cao_8_27_11_2022.xlsx
+++ b/bao_cao_8_27_11_2022.xlsx
@@ -213,9 +213,6 @@
     <t>20/11/2022</t>
   </si>
   <si>
-    <t>Giao tiếp 1 số loại sensor thông dụng</t>
-  </si>
-  <si>
     <t xml:space="preserve">  21/11/2022</t>
   </si>
   <si>
@@ -234,6 +231,9 @@
       </rPr>
       <t>SPI, I2C,USB</t>
     </r>
+  </si>
+  <si>
+    <t>Giao tiếp sensor:joystick,HC05,lm35,servo,dht11</t>
   </si>
 </sst>
 </file>
@@ -723,6 +723,66 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -738,71 +798,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1042,19 +1042,19 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1063,11 +1063,11 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -1081,48 +1081,48 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="60"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
@@ -1151,10 +1151,10 @@
       <c r="C10" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="63"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="43" t="s">
         <v>10</v>
       </c>
@@ -1171,7 +1171,7 @@
     <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="61"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="26" t="s">
         <v>14</v>
       </c>
@@ -1184,10 +1184,10 @@
       <c r="I11" s="44"/>
     </row>
     <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45">
+      <c r="A12" s="63">
         <v>1</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="63" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1209,8 +1209,8 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
@@ -1230,8 +1230,8 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
@@ -1251,10 +1251,10 @@
       <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="64">
+      <c r="A15" s="48">
         <v>2</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="48" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -1276,8 +1276,8 @@
       <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="12" t="s">
         <v>28</v>
       </c>
@@ -1297,8 +1297,8 @@
       <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="13" t="s">
         <v>39</v>
       </c>
@@ -1318,8 +1318,8 @@
       <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="14" t="s">
         <v>36</v>
       </c>
@@ -1339,8 +1339,8 @@
       <c r="I18" s="32"/>
     </row>
     <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="13" t="s">
         <v>38</v>
       </c>
@@ -1360,10 +1360,10 @@
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56">
+      <c r="A20" s="38">
         <v>3</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="38" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="33" t="s">
@@ -1385,8 +1385,8 @@
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="33" t="s">
         <v>45</v>
       </c>
@@ -1434,7 +1434,7 @@
       <c r="A23" s="15"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D23" s="37" t="s">
         <v>50</v>
@@ -1455,13 +1455,13 @@
       <c r="A24" s="15"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="37" t="s">
         <v>53</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>54</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>18</v>
@@ -1537,16 +1537,16 @@
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="58" t="s">
+      <c r="H31" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="59"/>
+      <c r="I31" s="41"/>
     </row>
     <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="60" t="s">
+      <c r="H32" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="59"/>
+      <c r="I32" s="41"/>
     </row>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2518,6 +2518,16 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="H32:I32"/>
@@ -2531,16 +2541,6 @@
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="B15:B19"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
